--- a/biology/Zoologie/Falcarius/Falcarius.xlsx
+++ b/biology/Zoologie/Falcarius/Falcarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falcarius (« porteur de faucille ») est un genre de dinosaures théropodes du groupe Therizinosauria découvert dans la formation de Cedar Mountain, datée du Barrémien, étage du Crétacé inférieur, dans le centre-est de l'Utah[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falcarius (« porteur de faucille ») est un genre de dinosaures théropodes du groupe Therizinosauria découvert dans la formation de Cedar Mountain, datée du Barrémien, étage du Crétacé inférieur, dans le centre-est de l'Utah.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Falcarius et l'espèce Falcarius utahensis ont été décrits en 2005 par James Ian Kirkland (d), Lindsay E. Zanno (d), Scott D. Sampson (d), James Matthew Clark (d) et Donald D. DeBlieux (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Falcarius et l'espèce Falcarius utahensis ont été décrits en 2005 par James Ian Kirkland (d), Lindsay E. Zanno (d), Scott D. Sampson (d), James Matthew Clark (d) et Donald D. DeBlieux (d).
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les restes de Falcarius sont découverts pour la première fois en 1999 par un collectionneur professionnel, Lawrence Walker, dans le site de la carrière Crystal Geyser dans le comté de Grand, dans l'Est de l'Utah. Il informe James Kirkland de cette découverte, lequel avec une équipe de l'Utah Geological Survey (en) commence à partir de 2001 à découvrir les ossements qui s'avèrent être présents sur 8 000 m2 de la formation de Cedar Mountain. Deux vastes couches d'ossements sont découvertes, appartenant à des centaines, voire des milliers d'individus d'une espèce nouvelle. Le nombre minimum d'individus est estimé en 2006 à trois cents[2]. En 2005, plus de deux mille spécimens ont été mis au jour, consistant principalement en des ossements désarticulés[1], incluant des restes d'individus juvéniles[2]. En 2008, un second site est signalé, la carrière Suarez, avec principalement des individus adultes, ou peut-être d'un type légèrement différent. En 2010, le nombre de spécimens trouvés dans la carrière d'origine atteint plus de 2 700[3], et plus de 3 000 sont signalés dans une étude ultérieure cette même année[4].
-Alors qu'un premier rapport scientifique concernant Falcarius a été publié en 2004[5] et qu'une boîte crânienne et le squelette appendiculaire antérieur ont été partiellement décrits cette même année[6], le genre et l'espèce F. utahensis n'ont été nommés formellement qu'en mai 2005 dans un article de la revue Nature[1].
-L'holotype, UMNH VP 15000, consiste en une boîte crânienne partielle. L'espèce possède plusieurs dizaines de paratypes et, en-dehors de cet hypodigme, des douzaines d'ossements  sont également attribués à F. utahensis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les restes de Falcarius sont découverts pour la première fois en 1999 par un collectionneur professionnel, Lawrence Walker, dans le site de la carrière Crystal Geyser dans le comté de Grand, dans l'Est de l'Utah. Il informe James Kirkland de cette découverte, lequel avec une équipe de l'Utah Geological Survey (en) commence à partir de 2001 à découvrir les ossements qui s'avèrent être présents sur 8 000 m2 de la formation de Cedar Mountain. Deux vastes couches d'ossements sont découvertes, appartenant à des centaines, voire des milliers d'individus d'une espèce nouvelle. Le nombre minimum d'individus est estimé en 2006 à trois cents. En 2005, plus de deux mille spécimens ont été mis au jour, consistant principalement en des ossements désarticulés, incluant des restes d'individus juvéniles. En 2008, un second site est signalé, la carrière Suarez, avec principalement des individus adultes, ou peut-être d'un type légèrement différent. En 2010, le nombre de spécimens trouvés dans la carrière d'origine atteint plus de 2 700, et plus de 3 000 sont signalés dans une étude ultérieure cette même année.
+Alors qu'un premier rapport scientifique concernant Falcarius a été publié en 2004 et qu'une boîte crânienne et le squelette appendiculaire antérieur ont été partiellement décrits cette même année, le genre et l'espèce F. utahensis n'ont été nommés formellement qu'en mai 2005 dans un article de la revue Nature.
+L'holotype, UMNH VP 15000, consiste en une boîte crânienne partielle. L'espèce possède plusieurs dizaines de paratypes et, en-dehors de cet hypodigme, des douzaines d'ossements  sont également attribués à F. utahensis.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir de l'examen d'os fossilisés de plusieurs animaux, les scientifiques ont montré que Falcarius utahensis avait une longueur moyenne de 3,7 à 4 m et une hauteur d'un peu plus de 1,2 m. Les plus petits individus juvéniles trouvés avaient une longueur d'environ un demi-mètre[2]. Le poids a été estimé à une centaine de kilogrammes par Gregory S. Paul[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de l'examen d'os fossilisés de plusieurs animaux, les scientifiques ont montré que Falcarius utahensis avait une longueur moyenne de 3,7 à 4 m et une hauteur d'un peu plus de 1,2 m. Les plus petits individus juvéniles trouvés avaient une longueur d'environ un demi-mètre. Le poids a été estimé à une centaine de kilogrammes par Gregory S. Paul.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant montre la position de Falcarius suivant l'analyse phylogénétique menée par Lyndsay Zanno en 2010[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre la position de Falcarius suivant l'analyse phylogénétique menée par Lyndsay Zanno en 2010.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) James I. Kirkland, Lindsay E. Zanno, Scott D. Sampson, James M. Clark et Donald D. DeBlieux, « A primitive therizinosauroid dinosaur from the Early Cretaceous of Utah », Nature, NPG et Springer Science+Business Media, vol. 435, no 7038,‎ 1er mai 2005, p. 84-87 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, PMID 15875020, DOI 10.1038/NATURE03468, lire en ligne)</t>
         </is>
